--- a/test.xlsx
+++ b/test.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,67 +486,63 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Channel</t>
+          <t>N/A 4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Midi port | Keyb MIDI Chan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Velocity curve</t>
+          <t>Midi port | Keyb MIDI Chan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Select 2</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aftertouch | Auto Snapshot | Not Synth</t>
+          <t>Velocity curve</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -558,19 +554,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Override MIDI Ch</t>
+          <t>Select 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Touchpad X Type</t>
+          <t>Aftertouch | Auto Snapshot | Not Synth</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -582,7 +578,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Touchpad Y Type</t>
+          <t>Override MIDI Ch</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -594,252 +590,252 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Touchpad X Type</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Select 6</t>
+          <t>Touchpad Y Type</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Select 7</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 6</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Select 8</t>
+          <t>Select 7</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Select 9</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Select 10</t>
+          <t>Select 9</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Select 11</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 10</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Select 12</t>
+          <t>Select 11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Select 13</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Select 14</t>
+          <t>Select 12</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Select 15</t>
+          <t>Select 13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Select 16</t>
+          <t>Select 14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Select 17</t>
+          <t>Select 16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Select 18</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Select 17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Select 18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -851,19 +847,19 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -875,7 +871,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -887,7 +883,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -906,12 +902,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -935,7 +931,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -954,24 +950,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -983,31 +979,31 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1027,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1043,31 +1039,31 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1082,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1142,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1171,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1190,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1211,19 +1207,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1231,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1243,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1259,19 +1255,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1283,19 +1279,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -1307,19 +1303,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1327,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1350,12 +1346,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1363,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1375,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1398,24 +1394,24 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1434,24 +1430,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1463,31 +1459,31 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1507,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1523,19 +1519,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1543,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1559,19 +1555,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1583,19 +1579,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1646,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1675,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1691,26 +1687,26 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Midi port</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1734,7 +1730,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Midi port</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1782,19 +1778,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Midi port</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1806,19 +1802,19 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Midi port</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1866,12 +1862,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1891,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1914,12 +1910,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1938,12 +1934,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Zeros</t>
+          <t>Select 19</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1963,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1982,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Select 19</t>
+          <t>Zeros</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2010,10 +2006,34 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>Select 19</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Select 19</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
           <t>Zeros</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>170</t>
         </is>
@@ -2208,7 +2228,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -2300,7 +2320,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -2392,7 +2412,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -2484,7 +2504,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -2576,7 +2596,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -2668,7 +2688,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -2760,7 +2780,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -2852,7 +2872,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -2944,7 +2964,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -3036,7 +3056,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -3128,7 +3148,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -3220,7 +3240,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -3312,7 +3332,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -3404,7 +3424,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3496,7 +3516,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3588,7 +3608,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3680,7 +3700,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3772,7 +3792,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3864,7 +3884,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3956,7 +3976,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4048,7 +4068,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4140,7 +4160,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4232,7 +4252,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4324,7 +4344,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4416,7 +4436,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4508,7 +4528,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4600,7 +4620,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -4692,7 +4712,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -4784,7 +4804,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -4876,7 +4896,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -4968,7 +4988,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5060,7 +5080,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5152,7 +5172,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -5244,7 +5264,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -5336,7 +5356,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -5428,7 +5448,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -5520,7 +5540,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -5612,7 +5632,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -5704,7 +5724,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -5796,7 +5816,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -5888,7 +5908,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5980,7 +6000,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -6072,7 +6092,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -6164,7 +6184,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -6256,7 +6276,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -6348,7 +6368,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -6440,7 +6460,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -6532,7 +6552,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -6624,7 +6644,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -6716,7 +6736,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -6808,7 +6828,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -6900,7 +6920,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -6992,7 +7012,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -7084,7 +7104,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -7176,7 +7196,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -7268,7 +7288,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -7360,7 +7380,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -7452,7 +7472,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -7544,7 +7564,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -7636,7 +7656,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -7728,7 +7748,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -7820,7 +7840,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -7912,7 +7932,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -8004,7 +8024,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -8096,7 +8116,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -8188,7 +8208,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -8280,7 +8300,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -8372,7 +8392,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -8464,7 +8484,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -8556,7 +8576,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -8648,7 +8668,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -8740,7 +8760,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -8832,7 +8852,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -8924,7 +8944,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -9016,7 +9036,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -9108,7 +9128,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -9200,7 +9220,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -9292,7 +9312,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -9384,7 +9404,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -9476,7 +9496,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -9568,7 +9588,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -9660,7 +9680,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -9752,7 +9772,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -9844,7 +9864,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -9936,7 +9956,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -10028,7 +10048,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -10120,7 +10140,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -10212,7 +10232,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -10304,7 +10324,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -10396,7 +10416,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
@@ -10488,7 +10508,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -10580,7 +10600,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -10672,7 +10692,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -10764,7 +10784,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -10856,7 +10876,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -10948,7 +10968,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -11040,7 +11060,7 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
@@ -11132,7 +11152,7 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
@@ -11224,7 +11244,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -11316,7 +11336,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -11408,7 +11428,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
@@ -11500,7 +11520,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -11592,7 +11612,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -11684,7 +11704,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -11776,7 +11796,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
@@ -11868,7 +11888,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -11960,7 +11980,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -12052,7 +12072,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -12144,7 +12164,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -12236,7 +12256,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -12328,7 +12348,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -12420,7 +12440,7 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
@@ -12512,7 +12532,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -12604,7 +12624,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
@@ -12696,7 +12716,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -12788,7 +12808,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -12880,7 +12900,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -12972,7 +12992,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -13064,7 +13084,7 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -13156,7 +13176,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -13248,7 +13268,7 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
@@ -13340,7 +13360,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -13432,7 +13452,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -13524,7 +13544,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -13616,7 +13636,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
@@ -13708,7 +13728,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -13800,7 +13820,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -13892,7 +13912,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -13984,7 +14004,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -14076,7 +14096,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -14168,7 +14188,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -14260,7 +14280,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -14352,7 +14372,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -14444,7 +14464,7 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
@@ -14536,7 +14556,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -14628,7 +14648,7 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
@@ -14720,7 +14740,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -14812,7 +14832,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -14904,7 +14924,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -14996,7 +15016,7 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
@@ -15088,7 +15108,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -15180,7 +15200,7 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
@@ -15272,7 +15292,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -15364,7 +15384,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -15456,7 +15476,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -15548,7 +15568,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -15640,7 +15660,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -15732,7 +15752,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -15824,7 +15844,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
@@ -15916,7 +15936,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>0x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x00x0</t>
+          <t>000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">

--- a/test.xlsx
+++ b/test.xlsx
@@ -431,7 +431,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Init1 Template</t>
+          <t>Vanguard</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,11 @@
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>reFX</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -511,7 +515,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -547,7 +551,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -847,7 +851,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -919,7 +923,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -979,7 +983,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1043,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1139,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1151,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1163,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1187,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1307,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1367,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1463,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1499,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1523,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1643,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1655,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1667,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1747,7 +1751,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1775,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1787,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1799,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1835,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1859,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1871,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1883,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1907,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1931,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1943,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1955,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1975,7 +1979,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1999,7 +2003,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2015,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2027,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2158,7 +2162,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Portamento</t>
+          <t>Vibrato Depth</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2183,12 +2187,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2198,7 +2202,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -2218,7 +2222,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -2248,11 +2252,7 @@
           <t>OSCS - MIXER&gt;UNISON</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>0</t>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -2342,12 +2342,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 1 Waveform</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 1 Semi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Fat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 1 Volume</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 PWM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2800,11 +2800,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2827,12 +2823,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2862,7 +2858,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2892,11 +2888,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2919,12 +2911,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -2954,7 +2946,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2984,11 +2976,7 @@
           <t>OSCS - MIXER(Osc 1)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>0</t>
@@ -3011,12 +2999,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3046,7 +3034,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3078,12 +3066,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Pitch</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3103,12 +3091,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -3118,7 +3106,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3138,7 +3126,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3170,12 +3158,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Detune</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3195,12 +3183,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3210,7 +3198,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3230,7 +3218,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3260,11 +3248,7 @@
           <t>OSCS - MIXER(Osc 1)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>0</t>
@@ -3282,17 +3266,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3322,7 +3306,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3354,12 +3338,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 2 Waveform</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3379,24 +3363,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
@@ -3404,7 +3388,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3414,7 +3398,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3446,12 +3430,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 2 Semi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3471,12 +3455,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3486,7 +3470,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -3496,7 +3480,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -3506,7 +3490,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3538,12 +3522,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Fat</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3563,12 +3547,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -3578,7 +3562,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3598,7 +3582,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3630,12 +3614,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 2 Volume</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3655,12 +3639,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3670,7 +3654,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3690,7 +3674,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3722,12 +3706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 PWM</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3747,12 +3731,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -3762,7 +3746,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3782,7 +3766,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3812,11 +3796,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>0</t>
@@ -3839,12 +3819,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -3874,7 +3854,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3904,11 +3884,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>0</t>
@@ -3931,12 +3907,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3966,7 +3942,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3996,11 +3972,7 @@
           <t>OSCS - MIXER(Osc 2)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>0</t>
@@ -4023,12 +3995,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4058,7 +4030,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4090,12 +4062,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Pitch</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4115,12 +4087,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -4130,7 +4102,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4150,7 +4122,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4182,12 +4154,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Detune</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4207,12 +4179,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4222,7 +4194,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4242,7 +4214,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4272,11 +4244,7 @@
           <t>OSCS - MIXER(Osc 2)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4294,17 +4262,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4334,7 +4302,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4366,12 +4334,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 3 Waveform</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4391,12 +4359,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4406,7 +4374,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4416,7 +4384,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -4426,7 +4394,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4458,12 +4426,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 3 Semi</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4483,12 +4451,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4498,7 +4466,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4508,7 +4476,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4518,7 +4486,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -4550,12 +4518,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Fat</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4575,12 +4543,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -4590,7 +4558,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4610,7 +4578,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4642,12 +4610,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Osc 3 Volume</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4667,12 +4635,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -4682,7 +4650,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4702,7 +4670,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4734,12 +4702,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 PWM</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4759,12 +4727,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -4774,7 +4742,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4794,7 +4762,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4824,11 +4792,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>0</t>
@@ -4851,12 +4815,12 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -4886,7 +4850,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4916,11 +4880,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>0</t>
@@ -4943,12 +4903,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4978,7 +4938,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5008,11 +4968,7 @@
           <t>OSCS - MIXER(Osc 3)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>0</t>
@@ -5035,12 +4991,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5070,7 +5026,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5102,12 +5058,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Pitch</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5127,12 +5083,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5142,7 +5098,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5162,7 +5118,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5194,12 +5150,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Detune</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5219,12 +5175,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5234,7 +5190,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5254,7 +5210,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5284,11 +5240,7 @@
           <t>OSCS - MIXER(Osc 3)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>0</t>
@@ -5306,17 +5258,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5346,7 +5298,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5376,11 +5328,7 @@
           <t>OSCS - MIXER(Noise)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>0</t>
@@ -5403,12 +5351,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5428,7 +5376,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -5438,7 +5386,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5468,11 +5416,7 @@
           <t>OSCS - MIXER(Noise)&gt;SEMITONE</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>0</t>
@@ -5495,12 +5439,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -5520,7 +5464,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -5530,7 +5474,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5560,11 +5504,7 @@
           <t>OSCS - MIXER(Noise)&gt;DETUNE</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>0</t>
@@ -5587,12 +5527,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5622,7 +5562,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5652,11 +5592,7 @@
           <t>OSCS - MIXER(Noise)&gt;LEVEL</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>0</t>
@@ -5679,12 +5615,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5714,7 +5650,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5744,11 +5680,7 @@
           <t>OSCS - MIXER(Noise)&gt;PWM</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>0</t>
@@ -5771,12 +5703,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5806,7 +5738,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5836,11 +5768,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>0</t>
@@ -5863,12 +5791,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -5898,7 +5826,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5928,11 +5856,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>0</t>
@@ -5955,12 +5879,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -5990,7 +5914,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -6020,11 +5944,7 @@
           <t>OSCS - MIXER(Noise)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>0</t>
@@ -6047,12 +5967,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6082,7 +6002,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6112,11 +6032,7 @@
           <t>OSCS - MIXER(Noise)&gt;ENV DEPTH</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>0</t>
@@ -6139,12 +6055,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -6174,7 +6090,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6204,11 +6120,7 @@
           <t>OSCS - MIXER(Noise)&gt;LFO DEPTH</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>0</t>
@@ -6231,12 +6143,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -6266,7 +6178,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6296,11 +6208,7 @@
           <t>OSCS - MIXER(Noise)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>0</t>
@@ -6318,17 +6226,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -6358,7 +6266,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6388,11 +6296,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>0</t>
@@ -6415,12 +6319,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -6440,7 +6344,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6450,7 +6354,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6480,11 +6384,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>0</t>
@@ -6507,12 +6407,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -6532,7 +6432,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6542,7 +6442,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6572,11 +6472,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>0</t>
@@ -6599,12 +6495,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -6634,7 +6530,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6664,11 +6560,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>0</t>
@@ -6691,12 +6583,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6726,7 +6618,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6756,11 +6648,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>0</t>
@@ -6783,12 +6671,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -6818,7 +6706,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6848,11 +6736,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>0</t>
@@ -6875,12 +6759,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -6910,7 +6794,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6940,11 +6824,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>0</t>
@@ -6967,12 +6847,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -7002,7 +6882,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -7032,11 +6912,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>0</t>
@@ -7059,12 +6935,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -7094,7 +6970,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7124,11 +7000,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>0</t>
@@ -7151,12 +7023,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -7186,7 +7058,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7216,11 +7088,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
           <t>0</t>
@@ -7243,12 +7111,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -7278,7 +7146,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7308,11 +7176,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>0</t>
@@ -7330,17 +7194,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -7370,7 +7234,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7402,7 +7266,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Filter Freq</t>
+          <t>Filter Cutoff</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7427,12 +7291,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -7462,7 +7326,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7519,12 +7383,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -7554,7 +7418,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7586,12 +7450,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Resonance</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -7611,12 +7475,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -7626,7 +7490,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7646,7 +7510,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7678,12 +7542,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Cutoff</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -7703,12 +7567,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7718,7 +7582,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7738,7 +7602,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7770,12 +7634,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Cutoff</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7795,12 +7659,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -7810,7 +7674,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -7830,7 +7694,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7862,12 +7726,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Amp Drive</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7887,12 +7751,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -7902,7 +7766,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7922,7 +7786,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7952,11 +7816,7 @@
           <t>FILTERS(1)&gt;SLOPE</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>0</t>
@@ -7979,12 +7839,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -8014,7 +7874,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8044,11 +7904,7 @@
           <t>FILTERS(1)&gt;TYPE</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>0</t>
@@ -8071,12 +7927,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -8106,7 +7962,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8136,11 +7992,7 @@
           <t>FILTERS(1)&gt;HPF ON</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>0</t>
@@ -8158,17 +8010,17 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -8198,7 +8050,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8228,11 +8080,7 @@
           <t>FILTERS(2)&gt;FREQUENCY</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>0</t>
@@ -8255,12 +8103,12 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -8290,7 +8138,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8320,11 +8168,7 @@
           <t>FILTERS(2)&gt;RESONANCE</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>0</t>
@@ -8347,12 +8191,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -8382,7 +8226,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8412,11 +8256,7 @@
           <t>FILTERS(2)&gt;KEY TRACK</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr">
         <is>
           <t>0</t>
@@ -8439,12 +8279,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -8474,7 +8314,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8504,11 +8344,7 @@
           <t>FILTERS(2)&gt;ENV DEPTH</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>0</t>
@@ -8531,12 +8367,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -8566,7 +8402,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8596,11 +8432,7 @@
           <t>FILTERS(2)&gt;LFO DEPTH</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>0</t>
@@ -8623,12 +8455,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -8658,7 +8490,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8688,11 +8520,7 @@
           <t>FILTERS(2)&gt;OVERDRIVE</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>0</t>
@@ -8715,12 +8543,12 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -8750,7 +8578,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8780,11 +8608,7 @@
           <t>FILTERS(2)&gt;SLOPE</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>0</t>
@@ -8807,12 +8631,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -8842,7 +8666,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -8872,11 +8696,7 @@
           <t>FILTERS(2)&gt;TYPE</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>0</t>
@@ -8899,12 +8719,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -8934,7 +8754,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8964,11 +8784,7 @@
           <t>FILTERS(2)&gt;HPF ON</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>0</t>
@@ -8986,17 +8802,17 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -9026,7 +8842,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -9058,12 +8874,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 1 Speed</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9083,12 +8899,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -9098,7 +8914,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9118,7 +8934,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9150,12 +8966,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 1 Detune</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -9175,12 +8991,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -9190,7 +9006,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9210,7 +9026,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9240,11 +9056,7 @@
           <t>LFOS(1)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>0</t>
@@ -9267,12 +9079,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9302,7 +9114,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9334,12 +9146,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 1 Trigger</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -9354,17 +9166,17 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -9374,7 +9186,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9384,7 +9196,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9394,7 +9206,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9426,12 +9238,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Speed</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -9451,12 +9263,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -9466,7 +9278,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -9486,7 +9298,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9518,12 +9330,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 PWM</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -9543,12 +9355,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -9558,7 +9370,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9578,7 +9390,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9608,11 +9420,7 @@
           <t>LFOS(2)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>0</t>
@@ -9635,12 +9443,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -9670,7 +9478,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9702,12 +9510,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 2 Trigger</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -9722,17 +9530,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -9742,7 +9550,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -9752,7 +9560,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -9762,7 +9570,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9794,12 +9602,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 3 Speed</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -9819,12 +9627,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -9834,7 +9642,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -9854,7 +9662,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9886,12 +9694,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 3 Cutoff</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -9911,12 +9719,12 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9926,7 +9734,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9946,7 +9754,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9976,11 +9784,7 @@
           <t>LFOS(3)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>0</t>
@@ -10003,12 +9807,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -10038,7 +9842,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10070,12 +9874,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>LFO 3 Trigger</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -10090,17 +9894,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -10110,7 +9914,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -10120,7 +9924,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10130,7 +9934,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10162,7 +9966,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Env Attack</t>
+          <t>Env 1 Attack</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -10187,12 +9991,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -10202,7 +10006,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -10222,7 +10026,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -10254,12 +10058,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 1 Decay</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -10279,12 +10083,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -10294,7 +10098,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -10314,7 +10118,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10346,12 +10150,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 1 Sustain</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -10371,12 +10175,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -10386,7 +10190,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -10406,7 +10210,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10438,7 +10242,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Env Release</t>
+          <t>Env 1 Release</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10463,12 +10267,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -10478,7 +10282,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -10498,7 +10302,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -10530,12 +10334,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Attack</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -10555,12 +10359,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -10570,7 +10374,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -10590,7 +10394,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10622,12 +10426,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Decay</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -10647,12 +10451,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -10662,7 +10466,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -10682,7 +10486,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -10714,12 +10518,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Sustain</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -10739,12 +10543,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -10754,7 +10558,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -10774,7 +10578,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10806,12 +10610,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Env 2 Release</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -10831,12 +10635,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -10846,7 +10650,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10866,7 +10670,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10896,11 +10700,7 @@
           <t>AMP ENV(Mod)&gt;MONO / POLY</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>0</t>
@@ -10918,17 +10718,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -10958,7 +10758,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -10988,11 +10788,7 @@
           <t>AMP ENV(Mod)&gt;GATE</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>0</t>
@@ -11010,17 +10806,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -11050,7 +10846,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -11080,11 +10876,7 @@
           <t>AMP ENV(Mod)&gt;HOLD</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
           <t>0</t>
@@ -11102,17 +10894,17 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -11142,7 +10934,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -11172,11 +10964,7 @@
           <t>AMP ENV(Mod)&gt;ON / OFF</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>0</t>
@@ -11194,17 +10982,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -11234,7 +11022,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -11264,11 +11052,7 @@
           <t>MOD ENV / ENV 3(Mod)&gt;DEST</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
         <is>
           <t>0</t>
@@ -11286,17 +11070,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -11326,7 +11110,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11356,11 +11140,7 @@
           <t>MOD ENV / ENV 3(Mod)&gt;GATE</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>0</t>
@@ -11378,17 +11158,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -11418,7 +11198,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -11448,11 +11228,7 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F1</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>0</t>
@@ -11470,17 +11246,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -11510,7 +11286,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11540,11 +11316,7 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F2</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
         <is>
           <t>0</t>
@@ -11562,17 +11334,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -11602,7 +11374,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -11632,11 +11404,7 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F3</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
         <is>
           <t>0</t>
@@ -11654,17 +11422,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -11694,7 +11462,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11724,11 +11492,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>0</t>
@@ -11751,12 +11515,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -11786,7 +11550,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -11816,11 +11580,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>0</t>
@@ -11843,12 +11603,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -11878,7 +11638,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -11908,11 +11668,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>0</t>
@@ -11935,12 +11691,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -11970,7 +11726,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -12000,11 +11756,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>0</t>
@@ -12027,12 +11779,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -12062,7 +11814,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -12094,12 +11846,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Vibrato Speed</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12119,12 +11871,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -12134,7 +11886,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -12154,7 +11906,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -12186,12 +11938,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Delay Mix</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12211,12 +11963,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -12226,7 +11978,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -12246,7 +11998,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12278,12 +12030,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Delay Feedback</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12303,12 +12055,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -12318,7 +12070,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -12338,7 +12090,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12370,12 +12122,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Delay Damp</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12395,12 +12147,12 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -12410,7 +12162,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -12430,7 +12182,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -12460,11 +12212,7 @@
           <t>AMP ENV(Env 3)&gt;MONO / POLY</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>0</t>
@@ -12482,17 +12230,17 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -12522,7 +12270,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -12552,11 +12300,7 @@
           <t>AMP ENV(Env 3)&gt;GATE</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>0</t>
@@ -12574,17 +12318,17 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -12614,7 +12358,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -12644,11 +12388,7 @@
           <t>AMP ENV(Env 3)&gt;HOLD</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>0</t>
@@ -12666,17 +12406,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -12706,7 +12446,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -12736,11 +12476,7 @@
           <t>AMP ENV(Env 3)&gt;ON / OFF</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
           <t>0</t>
@@ -12758,17 +12494,17 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -12798,7 +12534,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -12828,11 +12564,7 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;DEST</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>0</t>
@@ -12850,17 +12582,17 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -12890,7 +12622,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -12920,11 +12652,7 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;GATE</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>0</t>
@@ -12942,17 +12670,17 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -12982,7 +12710,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -13012,11 +12740,7 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F1</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
           <t>0</t>
@@ -13034,17 +12758,17 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -13074,7 +12798,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -13104,11 +12828,7 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F2</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>0</t>
@@ -13126,17 +12846,17 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -13166,7 +12886,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -13196,11 +12916,7 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F3</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>0</t>
@@ -13218,17 +12934,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -13258,7 +12974,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13290,12 +13006,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Amp Volume</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -13315,12 +13031,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -13330,7 +13046,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -13350,7 +13066,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13380,11 +13096,7 @@
           <t>VELOCITY(Amp)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>0</t>
@@ -13407,12 +13119,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -13442,7 +13154,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -13472,11 +13184,7 @@
           <t>VELOCITY(Amp)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>0</t>
@@ -13499,12 +13207,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -13534,7 +13242,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -13566,12 +13274,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Amp Pan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -13591,12 +13299,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -13606,7 +13314,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -13626,7 +13334,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -13656,11 +13364,7 @@
           <t>VELOCITY(Mod)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
           <t>0</t>
@@ -13683,12 +13387,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -13718,7 +13422,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -13748,11 +13452,7 @@
           <t>VELOCITY(Mod)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>0</t>
@@ -13775,12 +13475,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -13810,7 +13510,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -13842,12 +13542,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Amp Spread</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -13867,12 +13567,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -13882,7 +13582,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -13902,7 +13602,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -13932,11 +13632,7 @@
           <t>VELOCITY(Env 3)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
           <t>0</t>
@@ -13959,12 +13655,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -13994,7 +13690,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -14024,11 +13720,7 @@
           <t>VELOCITY(Env 3)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>0</t>
@@ -14051,12 +13743,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -14086,7 +13778,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -14118,12 +13810,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Contour</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -14143,12 +13835,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -14158,7 +13850,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -14178,7 +13870,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -14208,11 +13900,7 @@
           <t>ARP&gt;ON</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>0</t>
@@ -14235,12 +13923,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -14270,7 +13958,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -14300,11 +13988,7 @@
           <t>ARP&gt;LATCH</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>0</t>
@@ -14327,12 +14011,12 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -14362,7 +14046,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -14394,12 +14078,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Reverb Mix</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -14419,12 +14103,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -14434,7 +14118,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -14454,7 +14138,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -14484,11 +14168,7 @@
           <t>EFFECTS&gt;SELECT</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>0</t>
@@ -14511,12 +14191,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -14546,7 +14226,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -14578,12 +14258,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Reverb Damp</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -14603,12 +14283,12 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -14618,7 +14298,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -14638,7 +14318,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -14668,14 +14348,10 @@
           <t>EXTERNAL&gt;SUSTAIN</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Sustain</t>
-        </is>
-      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -14690,17 +14366,17 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0x74</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -14710,7 +14386,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -14730,7 +14406,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -14762,12 +14438,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Expression</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -14787,12 +14463,12 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -14802,7 +14478,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -14822,7 +14498,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -14854,7 +14530,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pitch bend</t>
+          <t>Pitch Bend</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -14879,12 +14555,12 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -14904,7 +14580,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
@@ -14914,7 +14590,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -14946,7 +14622,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mod Wheel</t>
+          <t>Modwheel</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14971,12 +14647,12 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -15006,7 +14682,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -15038,12 +14714,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Filter Cutoff</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -15063,12 +14739,12 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -15078,7 +14754,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -15098,7 +14774,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -15130,12 +14806,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>No Control</t>
+          <t>Filter Resonance</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -15155,12 +14831,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -15170,7 +14846,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -15190,7 +14866,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -15220,11 +14896,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>0</t>
@@ -15247,12 +14919,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -15282,7 +14954,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -15312,11 +14984,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr">
         <is>
           <t>0</t>
@@ -15339,12 +15007,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -15374,7 +15042,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -15404,14 +15072,10 @@
           <t>TRANSPORT&gt;STOP</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -15431,12 +15095,12 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -15456,7 +15120,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -15466,7 +15130,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -15496,14 +15160,10 @@
           <t>TRANSPORT&gt;PLAY</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Play</t>
-        </is>
-      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -15523,12 +15183,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -15548,7 +15208,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -15558,7 +15218,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -15588,14 +15248,10 @@
           <t>TRANSPORT&gt;REC</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Record</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -15615,12 +15271,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -15640,7 +15296,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -15650,7 +15306,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -15680,14 +15336,10 @@
           <t>TRANSPORT&gt;FF</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Forward</t>
-        </is>
-      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -15707,12 +15359,12 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -15732,7 +15384,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -15742,7 +15394,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -15772,14 +15424,10 @@
           <t>TRANSPORT&gt;RW</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Rewind</t>
-        </is>
-      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -15799,12 +15447,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -15824,7 +15472,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -15834,7 +15482,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -15864,11 +15512,7 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>No Control</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>0</t>
@@ -15891,12 +15535,12 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -15926,7 +15570,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">

--- a/test.xlsx
+++ b/test.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vanguard</t>
+          <t xml:space="preserve">  Tracktor DJ 2</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>reFX</t>
+          <t>Native Instr.</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>78</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>127</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>98</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -2162,34 +2162,34 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vibrato Depth</t>
+          <t>Choose Send 0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0x70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0x70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>64</t>
@@ -2202,17 +2202,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -2252,10 +2252,14 @@
           <t>OSCS - MIXER&gt;UNISON</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tempo A +</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2270,17 +2274,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2290,7 +2294,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2300,7 +2304,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -2310,7 +2314,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -2342,7 +2346,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Osc 1 Waveform</t>
+          <t>Tempo A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2367,12 +2371,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -2382,17 +2386,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -2402,7 +2406,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -2434,7 +2438,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Osc 1 Semi</t>
+          <t>TEMPO B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2459,34 +2463,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
@@ -2494,7 +2498,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -2526,7 +2530,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fat</t>
+          <t>Amount A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2551,7 +2555,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2566,17 +2570,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -2586,7 +2590,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -2618,7 +2622,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Osc 1 Volume</t>
+          <t>CUT A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2643,7 +2647,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2658,17 +2662,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -2678,7 +2682,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -2710,37 +2714,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Env 2 PWM</t>
+          <t>MIDI Pan 13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0x70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0x70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2750,12 +2754,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -2770,7 +2774,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2800,7 +2804,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2823,7 +2831,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2848,7 +2856,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2858,7 +2866,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2888,7 +2896,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>0</t>
@@ -2911,7 +2923,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2936,7 +2948,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2946,7 +2958,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2976,10 +2988,14 @@
           <t>OSCS - MIXER(Osc 1)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tempo A -</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2994,17 +3010,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -3014,7 +3030,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -3024,7 +3040,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -3034,7 +3050,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3066,7 +3082,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Env 2 Pitch</t>
+          <t>WITH A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3091,34 +3107,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
@@ -3126,7 +3142,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3158,7 +3174,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LFO 2 Detune</t>
+          <t>Reso A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3183,34 +3199,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3218,7 +3234,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3248,10 +3264,14 @@
           <t>OSCS - MIXER(Osc 1)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3266,17 +3286,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3286,7 +3306,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3296,7 +3316,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3306,7 +3326,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3338,12 +3358,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Osc 2 Waveform</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3363,12 +3383,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3378,7 +3398,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3388,7 +3408,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -3398,7 +3418,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3430,12 +3450,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Osc 2 Semi</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3455,34 +3475,34 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>0</t>
@@ -3490,7 +3510,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3522,12 +3542,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fat</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3547,7 +3567,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3562,7 +3582,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -3572,7 +3592,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -3582,7 +3602,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3614,12 +3634,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Osc 2 Volume</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3639,7 +3659,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3654,7 +3674,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3674,7 +3694,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3706,12 +3726,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Env 2 PWM</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3731,7 +3751,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3746,7 +3766,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3756,7 +3776,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3766,7 +3786,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3796,7 +3816,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>0</t>
@@ -3819,7 +3843,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3844,7 +3868,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3854,7 +3878,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3884,7 +3908,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>0</t>
@@ -3907,7 +3935,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -3932,7 +3960,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -3942,7 +3970,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3972,7 +4000,11 @@
           <t>OSCS - MIXER(Osc 2)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>0</t>
@@ -3995,7 +4027,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4020,7 +4052,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -4030,7 +4062,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4062,12 +4094,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Env 2 Pitch</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4087,7 +4119,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4102,7 +4134,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -4112,7 +4144,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -4122,7 +4154,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4154,12 +4186,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LFO 2 Detune</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4179,7 +4211,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4194,7 +4226,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4204,7 +4236,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -4214,7 +4246,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -4244,7 +4276,11 @@
           <t>OSCS - MIXER(Osc 2)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>0</t>
@@ -4262,12 +4298,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -4292,7 +4328,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -4302,7 +4338,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -4334,12 +4370,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Osc 3 Waveform</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4359,12 +4395,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4374,7 +4410,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -4394,7 +4430,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -4426,12 +4462,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Osc 3 Semi</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4451,34 +4487,34 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>0</t>
@@ -4486,7 +4522,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -4518,12 +4554,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fat</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4543,7 +4579,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -4558,7 +4594,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -4568,7 +4604,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -4578,7 +4614,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -4610,12 +4646,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Osc 3 Volume</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4635,7 +4671,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4650,7 +4686,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4660,7 +4696,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -4670,7 +4706,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4702,12 +4738,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Env 2 PWM</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4727,7 +4763,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4742,7 +4778,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -4752,7 +4788,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -4762,7 +4798,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4792,7 +4828,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>0</t>
@@ -4815,7 +4855,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4840,7 +4880,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4850,7 +4890,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4880,7 +4920,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>0</t>
@@ -4903,7 +4947,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4928,7 +4972,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -4938,7 +4982,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4968,7 +5012,11 @@
           <t>OSCS - MIXER(Osc 3)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>0</t>
@@ -4991,7 +5039,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -5016,7 +5064,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5026,7 +5074,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5058,12 +5106,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Env 2 Pitch</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5083,7 +5131,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5098,7 +5146,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5108,7 +5156,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -5118,7 +5166,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -5150,12 +5198,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LFO 2 Detune</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -5175,7 +5223,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -5190,7 +5238,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -5200,7 +5248,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -5210,7 +5258,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -5240,7 +5288,11 @@
           <t>OSCS - MIXER(Osc 3)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>0</t>
@@ -5258,12 +5310,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -5288,7 +5340,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -5298,7 +5350,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -5328,7 +5380,11 @@
           <t>OSCS - MIXER(Noise)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>0</t>
@@ -5351,12 +5407,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5386,7 +5442,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5416,7 +5472,11 @@
           <t>OSCS - MIXER(Noise)&gt;SEMITONE</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>0</t>
@@ -5439,34 +5499,34 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>0</t>
@@ -5474,7 +5534,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5504,7 +5564,11 @@
           <t>OSCS - MIXER(Noise)&gt;DETUNE</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>0</t>
@@ -5527,7 +5591,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5562,7 +5626,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5592,7 +5656,11 @@
           <t>OSCS - MIXER(Noise)&gt;LEVEL</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>0</t>
@@ -5615,7 +5683,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5650,7 +5718,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5680,7 +5748,11 @@
           <t>OSCS - MIXER(Noise)&gt;PWM</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>0</t>
@@ -5703,7 +5775,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5738,7 +5810,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5768,7 +5840,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>0</t>
@@ -5791,7 +5867,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5826,7 +5902,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5856,7 +5932,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>0</t>
@@ -5879,7 +5959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -5914,7 +5994,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5944,7 +6024,11 @@
           <t>OSCS - MIXER(Noise)&gt;OCTAVE</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>0</t>
@@ -5967,7 +6051,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -6002,7 +6086,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6032,7 +6116,11 @@
           <t>OSCS - MIXER(Noise)&gt;ENV DEPTH</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>0</t>
@@ -6055,7 +6143,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -6090,7 +6178,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6120,7 +6208,11 @@
           <t>OSCS - MIXER(Noise)&gt;LFO DEPTH</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>0</t>
@@ -6143,7 +6235,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -6168,7 +6260,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -6178,7 +6270,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6208,7 +6300,11 @@
           <t>OSCS - MIXER(Noise)&gt;SYNC</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>0</t>
@@ -6226,12 +6322,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -6266,7 +6362,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6296,7 +6392,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>0</t>
@@ -6319,34 +6419,34 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
           <t>0</t>
@@ -6354,7 +6454,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -6384,7 +6484,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>0</t>
@@ -6407,34 +6511,34 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>0</t>
@@ -6442,7 +6546,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -6472,7 +6576,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>0</t>
@@ -6495,7 +6603,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6530,7 +6638,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -6560,7 +6668,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>0</t>
@@ -6583,7 +6695,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -6618,7 +6730,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6648,7 +6760,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>0</t>
@@ -6671,7 +6787,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -6706,7 +6822,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6736,7 +6852,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>0</t>
@@ -6759,7 +6879,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6794,7 +6914,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6824,7 +6944,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>0</t>
@@ -6847,7 +6971,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6882,7 +7006,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6912,7 +7036,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>0</t>
@@ -6935,7 +7063,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -6970,7 +7098,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7000,7 +7128,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>0</t>
@@ -7023,7 +7155,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7058,7 +7190,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7088,7 +7220,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>0</t>
@@ -7111,7 +7247,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7136,7 +7272,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -7146,7 +7282,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7176,7 +7312,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>0</t>
@@ -7194,12 +7334,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7234,7 +7374,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7266,7 +7406,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Filter Cutoff</t>
+          <t>Amount B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7291,7 +7431,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7306,17 +7446,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -7326,7 +7466,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7358,7 +7498,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Filter Resonance</t>
+          <t>CUT B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7383,7 +7523,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7398,17 +7538,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -7418,7 +7558,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7450,7 +7590,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Env 2 Resonance</t>
+          <t>WITH B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7475,7 +7615,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7490,17 +7630,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -7510,7 +7650,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7542,7 +7682,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Env 2 Cutoff</t>
+          <t>Reso B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7567,12 +7707,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7582,17 +7722,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -7602,7 +7742,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7634,12 +7774,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LFO 2 Cutoff</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7659,7 +7799,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -7674,7 +7814,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -7684,7 +7824,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -7694,7 +7834,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7726,12 +7866,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Amp Drive</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -7751,7 +7891,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -7766,7 +7906,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7776,7 +7916,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -7786,7 +7926,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7816,7 +7956,11 @@
           <t>FILTERS(1)&gt;SLOPE</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>0</t>
@@ -7839,7 +7983,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7864,7 +8008,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -7874,7 +8018,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7904,7 +8048,11 @@
           <t>FILTERS(1)&gt;TYPE</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>0</t>
@@ -7927,7 +8075,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7962,7 +8110,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7992,7 +8140,11 @@
           <t>FILTERS(1)&gt;HPF ON</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>0</t>
@@ -8010,12 +8162,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8050,7 +8202,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8080,7 +8232,11 @@
           <t>FILTERS(2)&gt;FREQUENCY</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>0</t>
@@ -8103,7 +8259,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8138,7 +8294,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8168,7 +8324,11 @@
           <t>FILTERS(2)&gt;RESONANCE</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>0</t>
@@ -8191,7 +8351,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8226,7 +8386,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8256,7 +8416,11 @@
           <t>FILTERS(2)&gt;KEY TRACK</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>0</t>
@@ -8279,7 +8443,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8314,7 +8478,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8344,7 +8508,11 @@
           <t>FILTERS(2)&gt;ENV DEPTH</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>0</t>
@@ -8367,7 +8535,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8402,7 +8570,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8432,7 +8600,11 @@
           <t>FILTERS(2)&gt;LFO DEPTH</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>0</t>
@@ -8455,7 +8627,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8490,7 +8662,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8520,7 +8692,11 @@
           <t>FILTERS(2)&gt;OVERDRIVE</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>0</t>
@@ -8543,7 +8719,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -8578,7 +8754,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8608,7 +8784,11 @@
           <t>FILTERS(2)&gt;SLOPE</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>0</t>
@@ -8631,7 +8811,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8666,7 +8846,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -8696,7 +8876,11 @@
           <t>FILTERS(2)&gt;TYPE</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>0</t>
@@ -8719,7 +8903,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8754,7 +8938,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8784,7 +8968,11 @@
           <t>FILTERS(2)&gt;HPF ON</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>0</t>
@@ -8802,12 +8990,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -8842,7 +9030,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8874,12 +9062,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LFO 1 Speed</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -8899,7 +9087,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8914,7 +9102,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8924,7 +9112,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -8934,7 +9122,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8966,12 +9154,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LFO 1 Detune</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -8991,7 +9179,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -9006,7 +9194,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -9016,7 +9204,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -9026,7 +9214,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9056,10 +9244,14 @@
           <t>LFOS(1)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tempo B -</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -9074,17 +9266,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -9094,7 +9286,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -9104,7 +9296,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -9114,7 +9306,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9146,7 +9338,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LFO 1 Trigger</t>
+          <t>Tempo B +</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -9166,12 +9358,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -9186,7 +9378,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9196,7 +9388,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -9206,7 +9398,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9238,12 +9430,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LFO 2 Speed</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -9263,7 +9455,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -9278,7 +9470,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -9288,7 +9480,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9298,7 +9490,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9330,12 +9522,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LFO 2 PWM</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -9355,7 +9547,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9370,7 +9562,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9380,7 +9572,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -9390,7 +9582,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9420,7 +9612,11 @@
           <t>LFOS(2)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>0</t>
@@ -9443,7 +9639,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9468,7 +9664,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -9478,7 +9674,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9510,59 +9706,59 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LFO 2 Trigger</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0x70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0x78</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
           <t>0</t>
@@ -9570,7 +9766,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9602,12 +9798,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LFO 3 Speed</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -9627,7 +9823,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9642,7 +9838,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -9662,7 +9858,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9694,12 +9890,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LFO 3 Cutoff</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -9719,7 +9915,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -9734,7 +9930,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9754,7 +9950,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9784,7 +9980,11 @@
           <t>LFOS(3)&gt;WAVEFORM</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>0</t>
@@ -9807,7 +10007,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -9842,7 +10042,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -9874,12 +10074,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LFO 3 Trigger</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -9894,17 +10094,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0x78</t>
+          <t>0x70</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -9914,7 +10114,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9924,7 +10124,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -9934,7 +10134,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9966,7 +10166,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Env 1 Attack</t>
+          <t>Level A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -9991,7 +10191,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -10006,17 +10206,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10026,7 +10226,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -10058,7 +10258,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Env 1 Decay</t>
+          <t>Level B</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -10083,7 +10283,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -10098,17 +10298,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -10118,7 +10318,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10150,7 +10350,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Env 1 Sustain</t>
+          <t>Tempo Fine A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -10175,12 +10375,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -10190,17 +10390,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -10210,7 +10410,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10242,7 +10442,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Env 1 Release</t>
+          <t>Tempo Fine B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10267,12 +10467,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -10282,17 +10482,17 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -10302,7 +10502,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -10334,7 +10534,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Env 2 Attack</t>
+          <t>Bass A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -10359,12 +10559,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -10374,17 +10574,17 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>101</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -10394,7 +10594,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10426,7 +10626,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Env 2 Decay</t>
+          <t>High A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -10451,12 +10651,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -10466,17 +10666,17 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -10486,7 +10686,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -10518,7 +10718,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Env 2 Sustain</t>
+          <t>Bass B</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -10543,12 +10743,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -10558,17 +10758,17 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -10578,7 +10778,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10610,7 +10810,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Env 2 Release</t>
+          <t>High B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -10635,12 +10835,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -10650,17 +10850,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
@@ -10670,7 +10870,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10700,10 +10900,14 @@
           <t>AMP ENV(Mod)&gt;MONO / POLY</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Mute A</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -10718,17 +10922,17 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -10738,17 +10942,17 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10758,7 +10962,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -10788,10 +10992,14 @@
           <t>AMP ENV(Mod)&gt;GATE</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Mute B</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -10806,17 +11014,17 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -10826,17 +11034,17 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
@@ -10846,7 +11054,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -10876,7 +11084,11 @@
           <t>AMP ENV(Mod)&gt;HOLD</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Solo MIDI 11</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>0</t>
@@ -10894,12 +11106,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -10914,17 +11126,17 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -10934,7 +11146,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -10964,10 +11176,14 @@
           <t>AMP ENV(Mod)&gt;ON / OFF</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Filter Type A</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10982,17 +11198,17 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -11002,12 +11218,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -11022,7 +11238,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -11052,10 +11268,14 @@
           <t>MOD ENV / ENV 3(Mod)&gt;DEST</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>EQ ON/OFF A</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11070,17 +11290,17 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -11090,12 +11310,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -11110,7 +11330,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11140,10 +11360,14 @@
           <t>MOD ENV / ENV 3(Mod)&gt;GATE</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Low Kill A</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -11158,17 +11382,17 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -11178,17 +11402,17 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
@@ -11198,7 +11422,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -11228,10 +11452,14 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F1</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>EQ ON/OFF B</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -11246,17 +11474,17 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -11266,12 +11494,12 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -11286,7 +11514,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11316,10 +11544,14 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F2</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Low Kill B</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11334,17 +11566,17 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -11354,17 +11586,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -11374,7 +11606,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -11404,10 +11636,14 @@
           <t>MOD ENV / ENV 3(Mod)&gt;F3</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Filter Type B</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -11422,17 +11658,17 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -11442,12 +11678,12 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -11462,7 +11698,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11492,7 +11728,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>0</t>
@@ -11515,7 +11755,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -11550,7 +11790,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -11580,7 +11820,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>0</t>
@@ -11603,7 +11847,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -11638,7 +11882,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -11668,7 +11912,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>0</t>
@@ -11691,7 +11939,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -11726,7 +11974,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -11756,7 +12004,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>0</t>
@@ -11779,7 +12031,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -11814,7 +12066,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -11846,12 +12098,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Vibrato Speed</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -11871,7 +12123,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -11886,7 +12138,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -11906,7 +12158,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -11938,12 +12190,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Delay Mix</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11963,7 +12215,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -11978,7 +12230,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -11988,7 +12240,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>126</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -11998,7 +12250,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12030,12 +12282,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Delay Feedback</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12055,7 +12307,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -12070,7 +12322,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -12090,7 +12342,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12122,12 +12374,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Delay Damp</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12147,7 +12399,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -12162,7 +12414,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -12182,7 +12434,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -12212,7 +12464,11 @@
           <t>AMP ENV(Env 3)&gt;MONO / POLY</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Mute MIDI 9</t>
+        </is>
+      </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>0</t>
@@ -12230,12 +12486,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -12250,12 +12506,12 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -12270,7 +12526,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -12300,7 +12556,11 @@
           <t>AMP ENV(Env 3)&gt;GATE</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Mute MIDI 10</t>
+        </is>
+      </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>0</t>
@@ -12318,12 +12578,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -12338,12 +12598,12 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -12358,7 +12618,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -12388,7 +12648,11 @@
           <t>AMP ENV(Env 3)&gt;HOLD</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mute MIDI 11</t>
+        </is>
+      </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>0</t>
@@ -12406,12 +12670,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -12426,12 +12690,12 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -12446,7 +12710,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -12476,7 +12740,11 @@
           <t>AMP ENV(Env 3)&gt;ON / OFF</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Mute MIDI 12</t>
+        </is>
+      </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>0</t>
@@ -12494,12 +12762,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -12514,12 +12782,12 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -12534,7 +12802,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -12564,7 +12832,11 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;DEST</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mute MIDI 13</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>0</t>
@@ -12582,12 +12854,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -12602,12 +12874,12 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -12622,7 +12894,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -12652,7 +12924,11 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;GATE</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mute MIDI 14</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>0</t>
@@ -12670,12 +12946,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -12690,12 +12966,12 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -12710,7 +12986,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -12740,7 +13016,11 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F1</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Mute MIDI 15</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>0</t>
@@ -12758,12 +13038,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -12778,12 +13058,12 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -12798,7 +13078,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -12828,7 +13108,11 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F2</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mute MIDI 16</t>
+        </is>
+      </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>0</t>
@@ -12846,12 +13130,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -12866,12 +13150,12 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -12886,7 +13170,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -12916,7 +13200,11 @@
           <t>MOD ENV / ENV 3(Env 3)&gt;F3</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Master</t>
+        </is>
+      </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>0</t>
@@ -12934,12 +13222,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -12954,12 +13242,12 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -12974,7 +13262,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13006,7 +13294,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Amp Volume</t>
+          <t>MIX OUT</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -13031,7 +13319,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -13046,17 +13334,17 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -13066,7 +13354,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13096,7 +13384,11 @@
           <t>VELOCITY(Amp)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Punch In</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>0</t>
@@ -13114,12 +13406,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -13134,17 +13426,17 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -13154,7 +13446,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -13184,7 +13476,11 @@
           <t>VELOCITY(Amp)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Punch Out</t>
+        </is>
+      </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>0</t>
@@ -13202,12 +13498,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -13222,12 +13518,12 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>107</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -13242,7 +13538,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -13274,12 +13570,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Amp Pan</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -13299,7 +13595,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -13314,7 +13610,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -13324,7 +13620,7 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
@@ -13334,7 +13630,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -13364,7 +13660,11 @@
           <t>VELOCITY(Mod)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>0</t>
@@ -13387,7 +13687,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -13412,7 +13712,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
@@ -13422,7 +13722,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -13452,7 +13752,11 @@
           <t>VELOCITY(Mod)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>0</t>
@@ -13475,7 +13779,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -13510,7 +13814,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -13542,12 +13846,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Amp Spread</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -13567,7 +13871,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -13582,7 +13886,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -13592,7 +13896,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -13602,7 +13906,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -13632,7 +13936,11 @@
           <t>VELOCITY(Env 3)&gt;TRIGGER</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>0</t>
@@ -13655,7 +13963,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -13680,7 +13988,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -13690,7 +13998,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -13720,7 +14028,11 @@
           <t>VELOCITY(Env 3)&gt;REPEAT</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>0</t>
@@ -13743,7 +14055,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -13778,7 +14090,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -13810,12 +14122,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Contour</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -13835,7 +14147,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -13850,7 +14162,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -13860,7 +14172,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -13870,7 +14182,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -13900,7 +14212,11 @@
           <t>ARP&gt;ON</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Sync</t>
+        </is>
+      </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>0</t>
@@ -13918,12 +14234,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -13938,17 +14254,17 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>108</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -13958,7 +14274,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -13988,7 +14304,11 @@
           <t>ARP&gt;LATCH</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Click</t>
+        </is>
+      </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>0</t>
@@ -14006,12 +14326,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -14026,17 +14346,17 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>109</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -14046,7 +14366,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -14078,12 +14398,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Reverb Mix</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -14103,7 +14423,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -14118,7 +14438,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -14138,7 +14458,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -14168,7 +14488,11 @@
           <t>EFFECTS&gt;SELECT</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Cycle</t>
+        </is>
+      </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>0</t>
@@ -14186,12 +14510,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x78</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -14206,12 +14530,12 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -14226,7 +14550,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -14258,12 +14582,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Reverb Damp</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -14283,7 +14607,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -14298,7 +14622,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -14318,7 +14642,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -14348,7 +14672,11 @@
           <t>EXTERNAL&gt;SUSTAIN</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Sustain</t>
+        </is>
+      </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>0</t>
@@ -14366,12 +14694,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0x70</t>
+          <t>0x74</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -14386,7 +14714,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -14406,7 +14734,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -14438,12 +14766,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Expression</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -14463,7 +14791,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -14478,7 +14806,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -14498,7 +14826,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -14555,34 +14883,34 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M140" t="inlineStr">
         <is>
           <t>0</t>
@@ -14590,7 +14918,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -14622,7 +14950,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Modwheel</t>
+          <t>Mod Wheel</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -14647,7 +14975,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -14682,7 +15010,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -14714,34 +15042,34 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Filter Cutoff</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0x70</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>0x70</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="H142" t="inlineStr">
         <is>
           <t>64</t>
@@ -14754,7 +15082,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -14774,7 +15102,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -14806,12 +15134,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Filter Resonance</t>
+          <t>No Control</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -14831,7 +15159,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -14846,7 +15174,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -14866,7 +15194,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -14896,7 +15224,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>0</t>
@@ -14919,7 +15251,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -14954,7 +15286,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -14984,7 +15316,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>0</t>
@@ -15007,7 +15343,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -15042,7 +15378,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -15072,7 +15408,11 @@
           <t>TRANSPORT&gt;STOP</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Stop</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>0</t>
@@ -15080,12 +15420,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -15095,7 +15435,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -15110,12 +15450,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -15130,7 +15470,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -15160,7 +15500,11 @@
           <t>TRANSPORT&gt;PLAY</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>0</t>
@@ -15168,12 +15512,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -15183,7 +15527,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -15198,12 +15542,12 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -15218,7 +15562,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -15248,7 +15592,11 @@
           <t>TRANSPORT&gt;REC</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Record</t>
+        </is>
+      </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>0</t>
@@ -15256,12 +15604,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -15271,7 +15619,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -15286,12 +15634,12 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>116</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -15306,7 +15654,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -15336,7 +15684,11 @@
           <t>TRANSPORT&gt;FF</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Forward</t>
+        </is>
+      </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>0</t>
@@ -15344,12 +15696,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -15359,7 +15711,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -15374,12 +15726,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -15394,7 +15746,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -15424,7 +15776,11 @@
           <t>TRANSPORT&gt;RW</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rewind</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
           <t>0</t>
@@ -15432,12 +15788,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -15447,7 +15803,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -15462,12 +15818,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -15482,7 +15838,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -15512,7 +15868,11 @@
           <t>&gt;???</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>No Control</t>
+        </is>
+      </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>0</t>
@@ -15535,7 +15895,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -15570,7 +15930,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
